--- a/biology/Botanique/Susan_Carter_Holmes/Susan_Carter_Holmes.xlsx
+++ b/biology/Botanique/Susan_Carter_Holmes/Susan_Carter_Holmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Susan Carter Holmes, née le 1er juin 1933 (91 ans), est une botaniste et taxonomiste des Jardins botaniques royaux de Kew. Elle a découvert et catalogué plus de 200 plantes de la famille des Euphorbiacées, particulièrement des plantes succulentes de l’Est de l’Afrique membres du genres Euphorbe, aussi bien qu’une vingtaine d’espèces d’Aloe. Toutes ces plantes et articles ont été publiés sous son nom de jeune fille Susan Carter.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Susan Carter Holmes est actuellement présidente de l’International Euphorbia Society (IES).
 Les plantes nommées en son honneur sont :
